--- a/data/trans_orig/P35_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P35_2023-Edad-trans_orig.xlsx
@@ -691,12 +691,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11,11%</t>
+          <t>10,23%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>23,06%</t>
+          <t>24,42%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -712,12 +712,12 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>22,53%</t>
+          <t>22,47%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>36,58%</t>
+          <t>36,67%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -733,12 +733,12 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>18,29%</t>
+          <t>18,44%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>26,93%</t>
+          <t>27,45%</t>
         </is>
       </c>
     </row>
@@ -762,12 +762,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>76,94%</t>
+          <t>75,58%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>88,89%</t>
+          <t>89,77%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -783,12 +783,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>63,42%</t>
+          <t>63,33%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>77,47%</t>
+          <t>77,53%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -804,12 +804,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>73,07%</t>
+          <t>72,55%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>81,71%</t>
+          <t>81,56%</t>
         </is>
       </c>
     </row>
@@ -908,12 +908,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>20,56%</t>
+          <t>20,78%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>31,58%</t>
+          <t>31,43%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -929,12 +929,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>21,2%</t>
+          <t>20,47%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>29,84%</t>
+          <t>29,47%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -950,12 +950,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>22,32%</t>
+          <t>22,15%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>29,14%</t>
+          <t>29,06%</t>
         </is>
       </c>
     </row>
@@ -979,12 +979,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>68,42%</t>
+          <t>68,57%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>79,44%</t>
+          <t>79,22%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
@@ -1000,12 +1000,12 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>70,16%</t>
+          <t>70,53%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>78,8%</t>
+          <t>79,53%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -1021,12 +1021,12 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>70,86%</t>
+          <t>70,94%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>77,68%</t>
+          <t>77,85%</t>
         </is>
       </c>
     </row>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>30,85%</t>
+          <t>31,14%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1146,12 +1146,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>29,38%</t>
+          <t>29,78%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>36,23%</t>
+          <t>36,55%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1167,12 +1167,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>27,66%</t>
+          <t>27,49%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>32,68%</t>
+          <t>32,77%</t>
         </is>
       </c>
     </row>
@@ -1196,7 +1196,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>69,15%</t>
+          <t>68,86%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1217,12 +1217,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>63,77%</t>
+          <t>63,45%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>70,62%</t>
+          <t>70,22%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1238,12 +1238,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>67,32%</t>
+          <t>67,23%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>72,34%</t>
+          <t>72,51%</t>
         </is>
       </c>
     </row>
@@ -1342,12 +1342,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>24,52%</t>
+          <t>25,64%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>37,08%</t>
+          <t>37,15%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
@@ -1363,12 +1363,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>34,94%</t>
+          <t>34,44%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>41,29%</t>
+          <t>41,1%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1384,12 +1384,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>31,32%</t>
+          <t>31,34%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>37,98%</t>
+          <t>38,5%</t>
         </is>
       </c>
     </row>
@@ -1413,12 +1413,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>62,92%</t>
+          <t>62,85%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>75,48%</t>
+          <t>74,36%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1434,12 +1434,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>58,71%</t>
+          <t>58,9%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>65,06%</t>
+          <t>65,56%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1455,12 +1455,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>62,02%</t>
+          <t>61,5%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>68,68%</t>
+          <t>68,66%</t>
         </is>
       </c>
     </row>
@@ -1559,12 +1559,12 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>40,95%</t>
+          <t>40,77%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>48,95%</t>
+          <t>49,08%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
@@ -1580,12 +1580,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>41,83%</t>
+          <t>42,27%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>48,67%</t>
+          <t>48,79%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>47,69%</t>
+          <t>47,74%</t>
         </is>
       </c>
     </row>
@@ -1630,12 +1630,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>51,05%</t>
+          <t>50,92%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>59,05%</t>
+          <t>59,23%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1651,12 +1651,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>51,33%</t>
+          <t>51,21%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>58,17%</t>
+          <t>57,73%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>52,31%</t>
+          <t>52,26%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -1767,7 +1767,7 @@
         <v>527</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>355477</v>
+        <v>355478</v>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
@@ -1776,12 +1776,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>47,37%</t>
+          <t>47,74%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>54,01%</t>
+          <t>54,11%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
@@ -1797,12 +1797,12 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>31,35%</t>
+          <t>29,66%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>49,99%</t>
+          <t>49,87%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
@@ -1818,12 +1818,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>35,5%</t>
+          <t>36,59%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>50,37%</t>
+          <t>50,35%</t>
         </is>
       </c>
     </row>
@@ -1847,12 +1847,12 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>45,99%</t>
+          <t>45,89%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>52,63%</t>
+          <t>52,26%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
@@ -1868,12 +1868,12 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>50,01%</t>
+          <t>50,13%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>68,65%</t>
+          <t>70,34%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1889,12 +1889,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>49,63%</t>
+          <t>49,65%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>64,5%</t>
+          <t>63,41%</t>
         </is>
       </c>
     </row>
@@ -1909,7 +1909,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
@@ -1993,12 +1993,12 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>32,8%</t>
+          <t>32,91%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>37,09%</t>
+          <t>37,01%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
@@ -2014,12 +2014,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>33,59%</t>
+          <t>32,75%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>39,22%</t>
+          <t>39,06%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -2035,12 +2035,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>34,08%</t>
+          <t>34,3%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>37,66%</t>
+          <t>37,67%</t>
         </is>
       </c>
     </row>
@@ -2064,12 +2064,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>62,91%</t>
+          <t>62,99%</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>67,2%</t>
+          <t>67,09%</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
@@ -2085,12 +2085,12 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>60,78%</t>
+          <t>60,94%</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>66,41%</t>
+          <t>67,25%</t>
         </is>
       </c>
       <c r="M23" s="2" t="n">
@@ -2106,12 +2106,12 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>62,34%</t>
+          <t>62,33%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>65,92%</t>
+          <t>65,7%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/P35_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P35_2023-Edad-trans_orig.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal original" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables originales" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -691,12 +691,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>11,11%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>24,42%</t>
+          <t>23,06%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -712,12 +712,12 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>22,47%</t>
+          <t>22,53%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>36,67%</t>
+          <t>36,58%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -733,12 +733,12 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>18,44%</t>
+          <t>18,29%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>27,45%</t>
+          <t>26,93%</t>
         </is>
       </c>
     </row>
@@ -762,12 +762,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>75,58%</t>
+          <t>76,94%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>89,77%</t>
+          <t>88,89%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -783,12 +783,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>63,33%</t>
+          <t>63,42%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>77,53%</t>
+          <t>77,47%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -804,12 +804,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>72,55%</t>
+          <t>73,07%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>81,56%</t>
+          <t>81,71%</t>
         </is>
       </c>
     </row>
@@ -908,12 +908,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>20,78%</t>
+          <t>20,56%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>31,43%</t>
+          <t>31,58%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -929,12 +929,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>20,47%</t>
+          <t>21,2%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>29,47%</t>
+          <t>29,84%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -950,12 +950,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>22,15%</t>
+          <t>22,32%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>29,06%</t>
+          <t>29,14%</t>
         </is>
       </c>
     </row>
@@ -979,12 +979,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>68,57%</t>
+          <t>68,42%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>79,22%</t>
+          <t>79,44%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
@@ -1000,12 +1000,12 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>70,53%</t>
+          <t>70,16%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>79,53%</t>
+          <t>78,8%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -1021,12 +1021,12 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>70,94%</t>
+          <t>70,86%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>77,85%</t>
+          <t>77,68%</t>
         </is>
       </c>
     </row>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>31,14%</t>
+          <t>30,85%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1146,12 +1146,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>29,78%</t>
+          <t>29,38%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>36,55%</t>
+          <t>36,23%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1167,12 +1167,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>27,49%</t>
+          <t>27,66%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>32,77%</t>
+          <t>32,68%</t>
         </is>
       </c>
     </row>
@@ -1196,7 +1196,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>68,86%</t>
+          <t>69,15%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1217,12 +1217,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>63,45%</t>
+          <t>63,77%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>70,22%</t>
+          <t>70,62%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1238,12 +1238,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>67,23%</t>
+          <t>67,32%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>72,51%</t>
+          <t>72,34%</t>
         </is>
       </c>
     </row>
@@ -1342,12 +1342,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>25,64%</t>
+          <t>24,52%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>37,15%</t>
+          <t>37,08%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
@@ -1363,12 +1363,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>34,44%</t>
+          <t>34,94%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>41,1%</t>
+          <t>41,29%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1384,12 +1384,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>31,34%</t>
+          <t>31,32%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>38,5%</t>
+          <t>37,98%</t>
         </is>
       </c>
     </row>
@@ -1413,12 +1413,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>62,85%</t>
+          <t>62,92%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>74,36%</t>
+          <t>75,48%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1434,12 +1434,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>58,9%</t>
+          <t>58,71%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>65,56%</t>
+          <t>65,06%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1455,12 +1455,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>61,5%</t>
+          <t>62,02%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>68,66%</t>
+          <t>68,68%</t>
         </is>
       </c>
     </row>
@@ -1559,12 +1559,12 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>40,77%</t>
+          <t>40,95%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>49,08%</t>
+          <t>48,95%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
@@ -1580,12 +1580,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>42,27%</t>
+          <t>41,83%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>48,79%</t>
+          <t>48,67%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>47,74%</t>
+          <t>47,69%</t>
         </is>
       </c>
     </row>
@@ -1630,12 +1630,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>50,92%</t>
+          <t>51,05%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>59,23%</t>
+          <t>59,05%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1651,12 +1651,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>51,21%</t>
+          <t>51,33%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>57,73%</t>
+          <t>58,17%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>52,26%</t>
+          <t>52,31%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -1767,7 +1767,7 @@
         <v>527</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>355478</v>
+        <v>355477</v>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
@@ -1776,12 +1776,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>47,74%</t>
+          <t>47,37%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>54,11%</t>
+          <t>54,01%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
@@ -1797,12 +1797,12 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>29,66%</t>
+          <t>31,35%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>49,87%</t>
+          <t>49,99%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
@@ -1818,12 +1818,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>36,59%</t>
+          <t>35,5%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>50,35%</t>
+          <t>50,37%</t>
         </is>
       </c>
     </row>
@@ -1847,12 +1847,12 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>45,89%</t>
+          <t>45,99%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>52,26%</t>
+          <t>52,63%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
@@ -1868,12 +1868,12 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>50,13%</t>
+          <t>50,01%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>70,34%</t>
+          <t>68,65%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1889,12 +1889,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>49,65%</t>
+          <t>49,63%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>63,41%</t>
+          <t>64,5%</t>
         </is>
       </c>
     </row>
@@ -1909,7 +1909,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
@@ -1993,12 +1993,12 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>32,91%</t>
+          <t>32,8%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>37,01%</t>
+          <t>37,09%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
@@ -2014,12 +2014,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>32,75%</t>
+          <t>33,59%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>39,06%</t>
+          <t>39,22%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -2035,12 +2035,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>34,3%</t>
+          <t>34,08%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>37,67%</t>
+          <t>37,66%</t>
         </is>
       </c>
     </row>
@@ -2064,12 +2064,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>62,99%</t>
+          <t>62,91%</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>67,09%</t>
+          <t>67,2%</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
@@ -2085,12 +2085,12 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>60,94%</t>
+          <t>60,78%</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>67,25%</t>
+          <t>66,41%</t>
         </is>
       </c>
       <c r="M23" s="2" t="n">
@@ -2106,12 +2106,12 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>62,33%</t>
+          <t>62,34%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>65,7%</t>
+          <t>65,92%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/P35_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P35_2023-Edad-trans_orig.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -670,7 +670,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -682,63 +682,63 @@
         <v>28</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>60923</v>
+        <v>59049</v>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16,13%</t>
+          <t>14,76%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11,11%</t>
+          <t>9,85%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>23,06%</t>
+          <t>21,72%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
         <v>54</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>103328</v>
+        <v>85536</v>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>29,11%</t>
+          <t>27,31%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>22,53%</t>
+          <t>20,85%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>36,58%</t>
+          <t>34,61%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
         <v>82</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>164251</v>
+        <v>144585</v>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>22,42%</t>
+          <t>20,27%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>18,29%</t>
+          <t>16,3%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>26,93%</t>
+          <t>24,89%</t>
         </is>
       </c>
     </row>
@@ -753,63 +753,63 @@
         <v>144</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>316756</v>
+        <v>340938</v>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>83,87%</t>
+          <t>85,24%</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>76,94%</t>
+          <t>78,28%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>88,89%</t>
+          <t>90,15%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
         <v>153</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>251629</v>
+        <v>227664</v>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>70,89%</t>
+          <t>72,69%</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>63,42%</t>
+          <t>65,39%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>77,47%</t>
+          <t>79,15%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
         <v>297</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>568385</v>
+        <v>568602</v>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>77,58%</t>
+          <t>79,73%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>73,07%</t>
+          <t>75,11%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>81,71%</t>
+          <t>83,7%</t>
         </is>
       </c>
     </row>
@@ -824,7 +824,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
@@ -899,63 +899,63 @@
         <v>77</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>110691</v>
+        <v>103680</v>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>25,84%</t>
+          <t>24,48%</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>20,56%</t>
+          <t>19,49%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>31,58%</t>
+          <t>30,25%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
         <v>111</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>125147</v>
+        <v>108441</v>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>25,1%</t>
+          <t>21,2%</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>21,2%</t>
+          <t>14,05%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>29,84%</t>
+          <t>26,45%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
         <v>188</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>235838</v>
+        <v>212121</v>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>25,44%</t>
+          <t>22,69%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>22,32%</t>
+          <t>17,89%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>29,14%</t>
+          <t>26,41%</t>
         </is>
       </c>
     </row>
@@ -970,63 +970,63 @@
         <v>225</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>317705</v>
+        <v>319867</v>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>74,16%</t>
+          <t>75,52%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>68,42%</t>
+          <t>69,75%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>79,44%</t>
+          <t>80,51%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
         <v>349</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>373430</v>
+        <v>403063</v>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>74,9%</t>
+          <t>78,8%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>70,16%</t>
+          <t>73,55%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>78,8%</t>
+          <t>85,95%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
         <v>574</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>691135</v>
+        <v>722930</v>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>74,56%</t>
+          <t>77,31%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>70,86%</t>
+          <t>73,59%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>77,68%</t>
+          <t>82,11%</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
@@ -1062,7 +1062,7 @@
         <v>460</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
@@ -1083,7 +1083,7 @@
         <v>762</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1116,63 +1116,63 @@
         <v>143</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>150855</v>
+        <v>137714</v>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>27,07%</t>
+          <t>25,68%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>22,84%</t>
+          <t>21,68%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>30,85%</t>
+          <t>29,34%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
         <v>264</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>191369</v>
+        <v>173287</v>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>32,88%</t>
+          <t>32,02%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>29,38%</t>
+          <t>28,61%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>36,23%</t>
+          <t>35,26%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
         <v>407</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>342224</v>
+        <v>311001</v>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>30,04%</t>
+          <t>28,86%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>27,66%</t>
+          <t>26,5%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>32,68%</t>
+          <t>31,38%</t>
         </is>
       </c>
     </row>
@@ -1187,63 +1187,63 @@
         <v>403</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>406397</v>
+        <v>398624</v>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>72,93%</t>
+          <t>74,32%</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>69,15%</t>
+          <t>70,66%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>77,16%</t>
+          <t>78,32%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
         <v>580</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>390714</v>
+        <v>367890</v>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>67,12%</t>
+          <t>67,98%</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>63,77%</t>
+          <t>64,74%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>70,62%</t>
+          <t>71,39%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
         <v>983</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>797110</v>
+        <v>766514</v>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>69,96%</t>
+          <t>71,14%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>67,32%</t>
+          <t>68,62%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>72,34%</t>
+          <t>73,5%</t>
         </is>
       </c>
     </row>
@@ -1258,7 +1258,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>844</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>582083</v>
+        <v>541177</v>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>1390</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1139334</v>
+        <v>1077515</v>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
@@ -1333,63 +1333,63 @@
         <v>216</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>237414</v>
+        <v>217352</v>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>32,79%</t>
+          <t>24,48%</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>24,52%</t>
+          <t>10,1%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>37,08%</t>
+          <t>35,09%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
         <v>406</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>283581</v>
+        <v>254987</v>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>38,01%</t>
+          <t>35,82%</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>34,94%</t>
+          <t>30,23%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>41,29%</t>
+          <t>39,15%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
         <v>622</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>520995</v>
+        <v>472339</v>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>35,44%</t>
+          <t>29,53%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>31,32%</t>
+          <t>17,45%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>37,98%</t>
+          <t>35,69%</t>
         </is>
       </c>
     </row>
@@ -1404,63 +1404,63 @@
         <v>449</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>486576</v>
+        <v>670434</v>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>67,21%</t>
+          <t>75,52%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>62,92%</t>
+          <t>64,91%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>75,48%</t>
+          <t>89,9%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
         <v>733</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>462485</v>
+        <v>456781</v>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>61,99%</t>
+          <t>64,18%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>58,71%</t>
+          <t>60,85%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>65,06%</t>
+          <t>69,77%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
         <v>1182</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>949061</v>
+        <v>1127215</v>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>64,56%</t>
+          <t>70,47%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>62,02%</t>
+          <t>64,31%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>68,68%</t>
+          <t>82,55%</t>
         </is>
       </c>
     </row>
@@ -1475,7 +1475,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>1139</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>746066</v>
+        <v>711768</v>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>1804</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1470056</v>
+        <v>1599554</v>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
@@ -1538,7 +1538,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1550,63 +1550,63 @@
         <v>295</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>269925</v>
+        <v>246941</v>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>44,98%</t>
+          <t>44,0%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>40,95%</t>
+          <t>39,92%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>48,95%</t>
+          <t>47,86%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
         <v>427</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>268990</v>
+        <v>241683</v>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>45,29%</t>
+          <t>44,33%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>41,83%</t>
+          <t>40,97%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>48,67%</t>
+          <t>47,82%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
         <v>722</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>538915</v>
+        <v>488625</v>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>45,13%</t>
+          <t>44,16%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>42,52%</t>
+          <t>41,6%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>47,69%</t>
+          <t>46,7%</t>
         </is>
       </c>
     </row>
@@ -1621,63 +1621,63 @@
         <v>368</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>330232</v>
+        <v>314293</v>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>55,02%</t>
+          <t>56,0%</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>51,05%</t>
+          <t>52,14%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>59,05%</t>
+          <t>60,08%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
         <v>573</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>324941</v>
+        <v>303535</v>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>54,71%</t>
+          <t>55,67%</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>51,33%</t>
+          <t>52,18%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>58,17%</t>
+          <t>59,03%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
         <v>941</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>655173</v>
+        <v>617827</v>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>54,87%</t>
+          <t>55,84%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>52,31%</t>
+          <t>53,3%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>57,48%</t>
+          <t>58,4%</t>
         </is>
       </c>
     </row>
@@ -1692,7 +1692,7 @@
         <v>663</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>1000</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>593931</v>
+        <v>545218</v>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         <v>1663</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>1194088</v>
+        <v>1106452</v>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
@@ -1764,66 +1764,66 @@
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>527</v>
+        <v>284</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>355477</v>
+        <v>181257</v>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>50,95%</t>
+          <t>49,23%</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>47,37%</t>
+          <t>44,54%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>54,01%</t>
+          <t>53,29%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
-        <v>812</v>
+        <v>381</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>448401</v>
+        <v>191124</v>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>43,72%</t>
+          <t>31,44%</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>31,35%</t>
+          <t>11,94%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>49,99%</t>
+          <t>48,91%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
-        <v>1339</v>
+        <v>665</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>803879</v>
+        <v>372382</v>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>46,65%</t>
+          <t>38,15%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>35,5%</t>
+          <t>19,41%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>50,37%</t>
+          <t>49,19%</t>
         </is>
       </c>
     </row>
@@ -1835,66 +1835,66 @@
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>501</v>
+        <v>286</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>342277</v>
+        <v>186908</v>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>49,05%</t>
+          <t>50,77%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>45,99%</t>
+          <t>46,71%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>52,63%</t>
+          <t>55,46%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
-        <v>894</v>
+        <v>445</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>577164</v>
+        <v>416702</v>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>56,28%</t>
+          <t>68,56%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>50,01%</t>
+          <t>51,09%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>68,65%</t>
+          <t>88,06%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
-        <v>1395</v>
+        <v>731</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>919441</v>
+        <v>603609</v>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>53,35%</t>
+          <t>61,85%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>49,63%</t>
+          <t>50,81%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>64,5%</t>
+          <t>80,59%</t>
         </is>
       </c>
     </row>
@@ -1906,10 +1906,10 @@
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
@@ -1927,10 +1927,10 @@
         </is>
       </c>
       <c r="H21" s="2" t="n">
-        <v>1706</v>
+        <v>826</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>1025565</v>
+        <v>607826</v>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
@@ -1948,10 +1948,10 @@
         </is>
       </c>
       <c r="M21" s="2" t="n">
-        <v>2734</v>
+        <v>1396</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>1723320</v>
+        <v>975991</v>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
@@ -1981,66 +1981,66 @@
         </is>
       </c>
       <c r="C22" s="2" t="n">
-        <v>1286</v>
+        <v>243</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>1185285</v>
+        <v>145668</v>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>35,01%</t>
+          <t>51,52%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>32,8%</t>
+          <t>46,88%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>37,09%</t>
+          <t>56,22%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
-        <v>2074</v>
+        <v>431</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>1420816</v>
+        <v>208576</v>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>37,38%</t>
+          <t>49,03%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>33,59%</t>
+          <t>45,74%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>39,22%</t>
+          <t>52,05%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
-        <v>3360</v>
+        <v>674</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>2606102</v>
+        <v>354244</v>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>36,26%</t>
+          <t>50,02%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>34,08%</t>
+          <t>46,82%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>37,66%</t>
+          <t>52,61%</t>
         </is>
       </c>
     </row>
@@ -2052,66 +2052,66 @@
         </is>
       </c>
       <c r="C23" s="2" t="n">
-        <v>2090</v>
+        <v>215</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>2199943</v>
+        <v>137091</v>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>64,99%</t>
+          <t>48,48%</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>62,91%</t>
+          <t>43,78%</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>67,2%</t>
+          <t>53,12%</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
-        <v>3282</v>
+        <v>449</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>2380362</v>
+        <v>216851</v>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>62,62%</t>
+          <t>50,97%</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>60,78%</t>
+          <t>47,95%</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>66,41%</t>
+          <t>54,26%</t>
         </is>
       </c>
       <c r="M23" s="2" t="n">
-        <v>5372</v>
+        <v>664</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>4580305</v>
+        <v>353942</v>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>63,74%</t>
+          <t>49,98%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>62,34%</t>
+          <t>47,39%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>65,92%</t>
+          <t>53,18%</t>
         </is>
       </c>
     </row>
@@ -2123,83 +2123,301 @@
         </is>
       </c>
       <c r="C24" s="2" t="n">
+        <v>458</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>880</v>
+      </c>
+      <c r="I24" s="2" t="n">
+        <v>425427</v>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="n">
+        <v>1338</v>
+      </c>
+      <c r="N24" s="2" t="n">
+        <v>708186</v>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>1286</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>1091663</v>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>31,55%</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>24,24%</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>34,61%</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>2074</v>
+      </c>
+      <c r="I25" s="2" t="n">
+        <v>1263634</v>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>34,56%</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>28,36%</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>37,57%</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="n">
+        <v>3360</v>
+      </c>
+      <c r="N25" s="2" t="n">
+        <v>2355296</v>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>33,1%</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>27,88%</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>35,37%</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>2090</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>2368154</v>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>68,45%</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>65,39%</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>75,76%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>3282</v>
+      </c>
+      <c r="I26" s="2" t="n">
+        <v>2392485</v>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>65,44%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>62,43%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>71,64%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="n">
+        <v>5372</v>
+      </c>
+      <c r="N26" s="2" t="n">
+        <v>4760640</v>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>66,9%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>64,63%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>72,12%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="n">
         <v>3376</v>
       </c>
-      <c r="D24" s="2" t="n">
-        <v>3385228</v>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="n">
+      <c r="D27" s="2" t="n">
+        <v>3459817</v>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="n">
         <v>5356</v>
       </c>
-      <c r="I24" s="2" t="n">
-        <v>3801178</v>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="L24" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M24" s="2" t="n">
+      <c r="I27" s="2" t="n">
+        <v>3656119</v>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="n">
         <v>8732</v>
       </c>
-      <c r="N24" s="2" t="n">
-        <v>7186407</v>
-      </c>
-      <c r="O24" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="P24" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="Q24" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="N27" s="2" t="n">
+        <v>7115936</v>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_orig/P35_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P35_2023-Edad-trans_orig.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables originales" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:W44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +532,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2023 (Tasa respuesta: 99,87%)</t>
+          <t>Población según si su médico u otra persona le ha aconsejado que realice algún tipo de ejercicio físico en 2023</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +556,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -584,65 +596,95 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Estimación puntual</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>lím inf IC</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>lím sup IC</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>n (muestra)</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>N (estimada)</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>Estimación puntual</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>lím inf IC</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>lím sup IC</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>n (muestra)</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>N (estimada)</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
         <is>
           <t>Estimación puntual</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>lím inf IC</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="W2" s="3" t="inlineStr">
         <is>
           <t>lím sup IC</t>
         </is>
@@ -666,6 +708,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -675,70 +723,112 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>59049</v>
+          <t>Sí, otra persona</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>37686</t>
+        </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14,76%</t>
+          <t>22043</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,85%</t>
+          <t>64527</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>21,72%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>85536</v>
+          <t>9,42%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>5,51%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>16,13%</t>
+        </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>27,31%</t>
+          <t>23</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>20,85%</t>
+          <t>35745</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>34,61%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="n">
-        <v>82</v>
-      </c>
-      <c r="N4" s="2" t="n">
-        <v>144585</v>
+          <t>22597</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>53136</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>11,41%</t>
+        </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>20,27%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>16,3%</t>
+          <t>16,97%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>24,89%</t>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>73431</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>51077</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>98522</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>10,3%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>7,16%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>13,81%</t>
         </is>
       </c>
     </row>
@@ -746,70 +836,112 @@
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>144</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>340938</v>
+          <t>Sí, otro/a profesional sanitario/a (p.ej. fisioterapeuta, psicólogo/a, farmacéutico/a, enfermero/a…)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>5456</t>
+        </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>85,24%</t>
+          <t>1507</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>78,28%</t>
+          <t>16891</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>90,15%</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>153</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>227664</v>
+          <t>1,36%</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0,38%</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>4,22%</t>
+        </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>72,69%</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>65,39%</t>
+          <t>10140</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>79,15%</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="n">
-        <v>297</v>
-      </c>
-      <c r="N5" s="2" t="n">
-        <v>568602</v>
+          <t>4632</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>21325</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>3,24%</t>
+        </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>79,73%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>75,11%</t>
+          <t>6,81%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>83,7%</t>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>15597</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>8361</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>30599</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>2,19%</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>1,17%</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>4,29%</t>
         </is>
       </c>
     </row>
@@ -817,145 +949,225 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>172</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>399987</v>
+          <t>Sí, mi médico/a</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>15907</t>
+        </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>6186</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>35563</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>207</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>313200</v>
+          <t>3,98%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1,55%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>8,89%</t>
+        </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>39651</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="n">
-        <v>379</v>
-      </c>
-      <c r="N6" s="2" t="n">
-        <v>713187</v>
+          <t>26852</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>56913</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>12,66%</t>
+        </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>8,57%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>18,17%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>55557</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>38434</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>79903</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>7,79%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>5,39%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>11,2%</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>77</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>103680</v>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>340938</t>
+        </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>24,48%</t>
+          <t>312679</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>19,49%</t>
+          <t>362049</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>30,25%</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>111</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>108441</v>
+          <t>85,24%</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>78,17%</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>90,52%</t>
+        </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21,2%</t>
+          <t>153</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,05%</t>
+          <t>227664</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>26,45%</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="n">
-        <v>188</v>
-      </c>
-      <c r="N7" s="2" t="n">
-        <v>212121</v>
+          <t>204637</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>246688</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>72,69%</t>
+        </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>22,69%</t>
+          <t>65,34%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>17,89%</t>
+          <t>78,76%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>26,41%</t>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>568602</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>535489</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>597381</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>79,73%</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>75,08%</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>83,76%</t>
         </is>
       </c>
     </row>
@@ -963,216 +1175,342 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>225</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>319867</v>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>399987</t>
+        </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>75,52%</t>
+          <t>399987</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>69,75%</t>
+          <t>399987</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>80,51%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>349</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>403063</v>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>78,8%</t>
+          <t>207</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>73,55%</t>
+          <t>313200</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>85,95%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="n">
-        <v>574</v>
-      </c>
-      <c r="N8" s="2" t="n">
-        <v>722930</v>
+          <t>313200</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>313200</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>77,31%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>73,59%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>82,11%</t>
+          <t>379</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>713187</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>713187</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>713187</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n"/>
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>302</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>423547</v>
+          <t>Sí, otra persona</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>34836</t>
+        </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>22707</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>52752</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>460</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>511504</v>
+          <t>8,22%</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>5,36%</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>12,45%</t>
+        </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>43</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>37557</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="n">
-        <v>762</v>
-      </c>
-      <c r="N9" s="2" t="n">
-        <v>935051</v>
+          <t>23721</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>51026</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>7,34%</t>
+        </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>9,98%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>72393</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>52032</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>93772</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>7,74%</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>5,56%</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>10,03%</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>143</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>137714</v>
+          <t>Sí, otro/a profesional sanitario/a (p.ej. fisioterapeuta, psicólogo/a, farmacéutico/a, enfermero/a…)</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>13238</t>
+        </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>25,68%</t>
+          <t>7582</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>21,68%</t>
+          <t>24079</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>29,34%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>264</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>173287</v>
+          <t>3,13%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>1,79%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>5,69%</t>
+        </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>32,02%</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>28,61%</t>
+          <t>9588</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>35,26%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="n">
-        <v>407</v>
-      </c>
-      <c r="N10" s="2" t="n">
-        <v>311001</v>
+          <t>4291</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>17398</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>1,87%</t>
+        </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>28,86%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>26,5%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>31,38%</t>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>22826</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>14046</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>35723</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>2,44%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>1,5%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>3,82%</t>
         </is>
       </c>
     </row>
@@ -1180,70 +1518,112 @@
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>403</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>398624</v>
+          <t>Sí, mi médico/a</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>55606</t>
+        </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>74,32%</t>
+          <t>38670</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>70,66%</t>
+          <t>77809</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>78,32%</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>580</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>367890</v>
+          <t>13,13%</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>9,13%</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>18,37%</t>
+        </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>67,98%</t>
+          <t>58</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>64,74%</t>
+          <t>61296</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>71,39%</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="n">
-        <v>983</v>
-      </c>
-      <c r="N11" s="2" t="n">
-        <v>766514</v>
+          <t>36500</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>80235</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>11,98%</t>
+        </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>71,14%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>68,62%</t>
+          <t>15,69%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>73,5%</t>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>116902</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>87756</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>145030</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>12,5%</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>9,39%</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>15,51%</t>
         </is>
       </c>
     </row>
@@ -1251,216 +1631,342 @@
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>546</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>536338</v>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>319867</t>
+        </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>296645</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>342388</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>844</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>541177</v>
+          <t>75,52%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>70,04%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>80,84%</t>
+        </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>349</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>403063</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="n">
-        <v>1390</v>
-      </c>
-      <c r="N12" s="2" t="n">
-        <v>1077515</v>
+          <t>377630</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>444961</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>78,8%</t>
+        </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>73,83%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>86,99%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>574</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>722930</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>688435</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>770485</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>77,31%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>73,63%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>82,4%</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>216</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>217352</v>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>423547</t>
+        </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>24,48%</t>
+          <t>423547</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10,1%</t>
+          <t>423547</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>35,09%</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>406</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>254987</v>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>35,82%</t>
+          <t>460</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>30,23%</t>
+          <t>511504</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>39,15%</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="n">
-        <v>622</v>
-      </c>
-      <c r="N13" s="2" t="n">
-        <v>472339</v>
+          <t>511504</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>511504</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>29,53%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>17,45%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>35,69%</t>
+          <t>762</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>935051</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>935051</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>935051</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n"/>
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>449</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>670434</v>
+          <t>Sí, otra persona</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>41355</t>
+        </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>75,52%</t>
+          <t>29567</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>64,91%</t>
+          <t>55308</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>89,9%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>733</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>456781</v>
+          <t>7,71%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>5,51%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>10,31%</t>
+        </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>64,18%</t>
+          <t>58</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>60,85%</t>
+          <t>39425</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>69,77%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="n">
-        <v>1182</v>
-      </c>
-      <c r="N14" s="2" t="n">
-        <v>1127215</v>
+          <t>30756</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>51333</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>7,28%</t>
+        </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>70,47%</t>
+          <t>5,68%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>64,31%</t>
+          <t>9,49%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>82,55%</t>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>80779</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>65798</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>99314</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>7,5%</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>6,11%</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>9,22%</t>
         </is>
       </c>
     </row>
@@ -1468,145 +1974,225 @@
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>665</v>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>887786</v>
+          <t>Sí, otro/a profesional sanitario/a (p.ej. fisioterapeuta, psicólogo/a, farmacéutico/a, enfermero/a…)</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>9847</t>
+        </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>5214</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>17506</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>1139</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>711768</v>
+          <t>1,84%</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0,97%</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>3,26%</t>
+        </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>16822</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="n">
-        <v>1804</v>
-      </c>
-      <c r="N15" s="2" t="n">
-        <v>1599554</v>
+          <t>11034</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>23829</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>3,11%</t>
+        </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>26669</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>17926</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>36551</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>2,48%</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>1,66%</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>3,39%</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>295</v>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>246941</v>
+          <t>Sí, mi médico/a</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>86512</t>
+        </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>44,0%</t>
+          <t>70746</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>39,92%</t>
+          <t>104096</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>47,86%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>427</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>241683</v>
+          <t>16,13%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>13,19%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>19,41%</t>
+        </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>44,33%</t>
+          <t>179</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>40,97%</t>
+          <t>117040</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>47,82%</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="n">
-        <v>722</v>
-      </c>
-      <c r="N16" s="2" t="n">
-        <v>488625</v>
+          <t>102352</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>133216</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>21,63%</t>
+        </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>44,16%</t>
+          <t>18,91%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>41,6%</t>
+          <t>24,62%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>46,7%</t>
+          <t>266</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>203552</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>180195</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>226750</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>18,89%</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>16,72%</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>21,04%</t>
         </is>
       </c>
     </row>
@@ -1617,67 +2203,109 @@
           <t>No</t>
         </is>
       </c>
-      <c r="C17" s="2" t="n">
-        <v>368</v>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>314293</v>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>403</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>398624</t>
+        </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>56,0%</t>
+          <t>377899</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>52,14%</t>
+          <t>419312</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>60,08%</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>573</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>303535</v>
+          <t>74,32%</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>70,46%</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>78,18%</t>
+        </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>55,67%</t>
+          <t>580</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>52,18%</t>
+          <t>367890</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>59,03%</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="n">
-        <v>941</v>
-      </c>
-      <c r="N17" s="2" t="n">
-        <v>617827</v>
+          <t>349653</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>385995</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>67,98%</t>
+        </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>55,84%</t>
+          <t>64,61%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>53,3%</t>
+          <t>71,33%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>58,4%</t>
+          <t>983</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>766514</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>737243</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>791906</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>71,14%</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>68,42%</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>73,49%</t>
         </is>
       </c>
     </row>
@@ -1688,20 +2316,24 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C18" s="2" t="n">
-        <v>663</v>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>561234</v>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>546</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>536338</t>
+        </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>536338</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>536338</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1709,32 +2341,40 @@
           <t>100%</t>
         </is>
       </c>
-      <c r="H18" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>545218</v>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>844</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>541177</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="n">
-        <v>1663</v>
-      </c>
-      <c r="N18" s="2" t="n">
-        <v>1106452</v>
+          <t>541177</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>541177</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
@@ -1747,6 +2387,36 @@
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>1390</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>1077515</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>1077515</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>1077515</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
@@ -1755,75 +2425,117 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>65-74</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>284</v>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>181257</v>
+          <t>Sí, otra persona</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>38233</t>
+        </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>49,23%</t>
+          <t>15463</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>44,54%</t>
+          <t>59536</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>53,29%</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>381</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>191124</v>
+          <t>4,31%</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>1,74%</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>6,71%</t>
+        </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>31,44%</t>
+          <t>68</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>11,94%</t>
+          <t>40789</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>48,91%</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="n">
-        <v>665</v>
-      </c>
-      <c r="N19" s="2" t="n">
-        <v>372382</v>
+          <t>31603</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>52686</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>5,73%</t>
+        </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>38,15%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>19,41%</t>
+          <t>7,4%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>49,19%</t>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>79022</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>44028</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>100183</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>4,94%</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="inlineStr">
+        <is>
+          <t>2,75%</t>
+        </is>
+      </c>
+      <c r="W19" s="2" t="inlineStr">
+        <is>
+          <t>6,26%</t>
         </is>
       </c>
     </row>
@@ -1831,70 +2543,112 @@
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>286</v>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>186908</v>
+          <t>Sí, otro/a profesional sanitario/a (p.ej. fisioterapeuta, psicólogo/a, farmacéutico/a, enfermero/a…)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>19703</t>
+        </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>50,77%</t>
+          <t>6679</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>46,71%</t>
+          <t>32956</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>55,46%</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>445</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>416702</v>
+          <t>2,22%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0,75%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>3,71%</t>
+        </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>68,56%</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>51,09%</t>
+          <t>19041</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>88,06%</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="n">
-        <v>731</v>
-      </c>
-      <c r="N20" s="2" t="n">
-        <v>603609</v>
+          <t>12321</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>26786</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>2,68%</t>
+        </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>61,85%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>50,81%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>80,59%</t>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>38744</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>21923</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>53915</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>2,42%</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
+          <t>1,37%</t>
+        </is>
+      </c>
+      <c r="W20" s="2" t="inlineStr">
+        <is>
+          <t>3,37%</t>
         </is>
       </c>
     </row>
@@ -1902,145 +2656,225 @@
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>570</v>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>368165</v>
+          <t>Sí, mi médico/a</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>159416</t>
+        </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>73864</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>232620</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>826</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>607826</v>
+          <t>17,96%</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>8,32%</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>26,2%</t>
+        </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>308</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>195157</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M21" s="2" t="n">
-        <v>1396</v>
-      </c>
-      <c r="N21" s="2" t="n">
-        <v>975991</v>
+          <t>163873</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>217136</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>27,42%</t>
+        </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>23,02%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>30,51%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>354573</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>206737</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>435356</t>
+        </is>
+      </c>
+      <c r="U21" s="2" t="inlineStr">
+        <is>
+          <t>22,17%</t>
+        </is>
+      </c>
+      <c r="V21" s="2" t="inlineStr">
+        <is>
+          <t>12,92%</t>
+        </is>
+      </c>
+      <c r="W21" s="2" t="inlineStr">
+        <is>
+          <t>27,22%</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>75 o más</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>243</v>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>145668</v>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>449</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>670434</t>
+        </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>51,52%</t>
+          <t>573719</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>46,88%</t>
+          <t>792190</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>56,22%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>431</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>208576</v>
+          <t>75,52%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>64,62%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>89,23%</t>
+        </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>49,03%</t>
+          <t>733</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>45,74%</t>
+          <t>456781</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>52,05%</t>
-        </is>
-      </c>
-      <c r="M22" s="2" t="n">
-        <v>674</v>
-      </c>
-      <c r="N22" s="2" t="n">
-        <v>354244</v>
+          <t>433231</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>496864</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>64,18%</t>
+        </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>50,02%</t>
+          <t>60,87%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>46,82%</t>
+          <t>69,81%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>52,61%</t>
+          <t>1182</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>1127215</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>1024273</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>1326228</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
+          <t>70,47%</t>
+        </is>
+      </c>
+      <c r="V22" s="2" t="inlineStr">
+        <is>
+          <t>64,03%</t>
+        </is>
+      </c>
+      <c r="W22" s="2" t="inlineStr">
+        <is>
+          <t>82,91%</t>
         </is>
       </c>
     </row>
@@ -2048,216 +2882,342 @@
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="n">
-        <v>215</v>
-      </c>
-      <c r="D23" s="2" t="n">
-        <v>137091</v>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>665</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>887786</t>
+        </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>48,48%</t>
+          <t>887786</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>43,78%</t>
+          <t>887786</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>53,12%</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>449</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>216851</v>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>50,97%</t>
+          <t>1139</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>47,95%</t>
+          <t>711768</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>54,26%</t>
-        </is>
-      </c>
-      <c r="M23" s="2" t="n">
-        <v>664</v>
-      </c>
-      <c r="N23" s="2" t="n">
-        <v>353942</v>
+          <t>711768</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>711768</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>49,98%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>47,39%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>53,18%</t>
+          <t>1804</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>1599554</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>1599554</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>1599554</t>
+        </is>
+      </c>
+      <c r="U23" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V23" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W23" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n"/>
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="n">
-        <v>458</v>
-      </c>
-      <c r="D24" s="2" t="n">
-        <v>282759</v>
+          <t>Sí, otra persona</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>42983</t>
+        </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>31459</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>56297</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>880</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>425427</v>
+          <t>7,66%</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>5,61%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>10,03%</t>
+        </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>64</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>38319</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M24" s="2" t="n">
-        <v>1338</v>
-      </c>
-      <c r="N24" s="2" t="n">
-        <v>708186</v>
+          <t>28955</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>47172</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>7,03%</t>
+        </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>8,65%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>81302</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>66958</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>97169</t>
+        </is>
+      </c>
+      <c r="U24" s="2" t="inlineStr">
+        <is>
+          <t>7,35%</t>
+        </is>
+      </c>
+      <c r="V24" s="2" t="inlineStr">
+        <is>
+          <t>6,05%</t>
+        </is>
+      </c>
+      <c r="W24" s="2" t="inlineStr">
+        <is>
+          <t>8,78%</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="n">
-        <v>1286</v>
-      </c>
-      <c r="D25" s="2" t="n">
-        <v>1091663</v>
+          <t>Sí, otro/a profesional sanitario/a (p.ej. fisioterapeuta, psicólogo/a, farmacéutico/a, enfermero/a…)</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>19047</t>
+        </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>31,55%</t>
+          <t>12784</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>24,24%</t>
+          <t>28055</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>34,61%</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>2074</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>1263634</v>
+          <t>3,39%</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>2,28%</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>5,0%</t>
+        </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>34,56%</t>
+          <t>44</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>28,36%</t>
+          <t>26117</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>37,57%</t>
-        </is>
-      </c>
-      <c r="M25" s="2" t="n">
-        <v>3360</v>
-      </c>
-      <c r="N25" s="2" t="n">
-        <v>2355296</v>
+          <t>19471</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>33960</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>4,79%</t>
+        </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>33,1%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>27,88%</t>
+          <t>6,23%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>35,37%</t>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>45164</t>
+        </is>
+      </c>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>35327</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="inlineStr">
+        <is>
+          <t>56772</t>
+        </is>
+      </c>
+      <c r="U25" s="2" t="inlineStr">
+        <is>
+          <t>4,08%</t>
+        </is>
+      </c>
+      <c r="V25" s="2" t="inlineStr">
+        <is>
+          <t>3,19%</t>
+        </is>
+      </c>
+      <c r="W25" s="2" t="inlineStr">
+        <is>
+          <t>5,13%</t>
         </is>
       </c>
     </row>
@@ -2265,70 +3225,112 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="n">
-        <v>2090</v>
-      </c>
-      <c r="D26" s="2" t="n">
-        <v>2368154</v>
+          <t>Sí, mi médico/a</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>184912</t>
+        </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>68,45%</t>
+          <t>164420</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>65,39%</t>
+          <t>206790</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>75,76%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>3282</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>2392485</v>
+          <t>32,95%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>29,3%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>36,85%</t>
+        </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>65,44%</t>
+          <t>319</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>62,43%</t>
+          <t>177247</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>71,64%</t>
-        </is>
-      </c>
-      <c r="M26" s="2" t="n">
-        <v>5372</v>
-      </c>
-      <c r="N26" s="2" t="n">
-        <v>4760640</v>
+          <t>161532</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>193635</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>32,51%</t>
+        </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>66,9%</t>
+          <t>29,63%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>64,63%</t>
+          <t>35,52%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>72,12%</t>
+          <t>539</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>362159</t>
+        </is>
+      </c>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>335684</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>389216</t>
+        </is>
+      </c>
+      <c r="U26" s="2" t="inlineStr">
+        <is>
+          <t>32,73%</t>
+        </is>
+      </c>
+      <c r="V26" s="2" t="inlineStr">
+        <is>
+          <t>30,34%</t>
+        </is>
+      </c>
+      <c r="W26" s="2" t="inlineStr">
+        <is>
+          <t>35,18%</t>
         </is>
       </c>
     </row>
@@ -2336,75 +3338,1937 @@
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="n">
-        <v>3376</v>
-      </c>
-      <c r="D27" s="2" t="n">
-        <v>3459817</v>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>314293</t>
+        </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>290038</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>337894</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="n">
-        <v>5356</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>3656119</v>
+          <t>56,0%</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>51,68%</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>60,21%</t>
+        </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>573</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>303535</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M27" s="2" t="n">
-        <v>8732</v>
-      </c>
-      <c r="N27" s="2" t="n">
-        <v>7115936</v>
+          <t>286241</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>320954</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>55,67%</t>
+        </is>
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>52,5%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>58,87%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>941</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>617827</t>
+        </is>
+      </c>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>588335</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="inlineStr">
+        <is>
+          <t>644079</t>
+        </is>
+      </c>
+      <c r="U27" s="2" t="inlineStr">
+        <is>
+          <t>55,84%</t>
+        </is>
+      </c>
+      <c r="V27" s="2" t="inlineStr">
+        <is>
+          <t>53,17%</t>
+        </is>
+      </c>
+      <c r="W27" s="2" t="inlineStr">
+        <is>
+          <t>58,21%</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="1" t="n"/>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>663</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>561234</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>561234</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>561234</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>545218</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>545218</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>545218</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>1663</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>1106452</t>
+        </is>
+      </c>
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>1106452</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="inlineStr">
+        <is>
+          <t>1106452</t>
+        </is>
+      </c>
+      <c r="U28" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V28" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W28" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>Sí, otra persona</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>30982</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>23358</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>40938</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>8,42%</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>6,34%</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>11,12%</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>30102</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>11038</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>48574</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>4,95%</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>1,82%</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>7,99%</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>61084</t>
+        </is>
+      </c>
+      <c r="S29" s="2" t="inlineStr">
+        <is>
+          <t>33320</t>
+        </is>
+      </c>
+      <c r="T29" s="2" t="inlineStr">
+        <is>
+          <t>83334</t>
+        </is>
+      </c>
+      <c r="U29" s="2" t="inlineStr">
+        <is>
+          <t>6,26%</t>
+        </is>
+      </c>
+      <c r="V29" s="2" t="inlineStr">
+        <is>
+          <t>3,41%</t>
+        </is>
+      </c>
+      <c r="W29" s="2" t="inlineStr">
+        <is>
+          <t>8,54%</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Sí, otro/a profesional sanitario/a (p.ej. fisioterapeuta, psicólogo/a, farmacéutico/a, enfermero/a…)</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>10886</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>6562</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>17630</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>2,96%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>1,78%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>4,79%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>10554</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>3171</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>18739</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>1,74%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>0,52%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>3,08%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="R30" s="2" t="inlineStr">
+        <is>
+          <t>21440</t>
+        </is>
+      </c>
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>11010</t>
+        </is>
+      </c>
+      <c r="T30" s="2" t="inlineStr">
+        <is>
+          <t>32220</t>
+        </is>
+      </c>
+      <c r="U30" s="2" t="inlineStr">
+        <is>
+          <t>2,2%</t>
+        </is>
+      </c>
+      <c r="V30" s="2" t="inlineStr">
+        <is>
+          <t>1,13%</t>
+        </is>
+      </c>
+      <c r="W30" s="2" t="inlineStr">
+        <is>
+          <t>3,3%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>Sí, mi médico/a</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>139389</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>124269</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>154554</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>37,86%</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>33,75%</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>41,98%</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>150469</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>62020</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>233464</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>24,76%</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>10,2%</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>38,41%</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>522</t>
+        </is>
+      </c>
+      <c r="R31" s="2" t="inlineStr">
+        <is>
+          <t>289858</t>
+        </is>
+      </c>
+      <c r="S31" s="2" t="inlineStr">
+        <is>
+          <t>155899</t>
+        </is>
+      </c>
+      <c r="T31" s="2" t="inlineStr">
+        <is>
+          <t>376161</t>
+        </is>
+      </c>
+      <c r="U31" s="2" t="inlineStr">
+        <is>
+          <t>29,7%</t>
+        </is>
+      </c>
+      <c r="V31" s="2" t="inlineStr">
+        <is>
+          <t>15,97%</t>
+        </is>
+      </c>
+      <c r="W31" s="2" t="inlineStr">
+        <is>
+          <t>38,54%</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>186908</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>170580</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>203433</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>50,77%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>46,33%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>55,26%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>416702</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>313718</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>529127</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>68,56%</t>
+        </is>
+      </c>
+      <c r="O32" s="2" t="inlineStr">
+        <is>
+          <t>51,61%</t>
+        </is>
+      </c>
+      <c r="P32" s="2" t="inlineStr">
+        <is>
+          <t>87,05%</t>
+        </is>
+      </c>
+      <c r="Q32" s="2" t="inlineStr">
+        <is>
+          <t>731</t>
+        </is>
+      </c>
+      <c r="R32" s="2" t="inlineStr">
+        <is>
+          <t>603609</t>
+        </is>
+      </c>
+      <c r="S32" s="2" t="inlineStr">
+        <is>
+          <t>495093</t>
+        </is>
+      </c>
+      <c r="T32" s="2" t="inlineStr">
+        <is>
+          <t>770850</t>
+        </is>
+      </c>
+      <c r="U32" s="2" t="inlineStr">
+        <is>
+          <t>61,85%</t>
+        </is>
+      </c>
+      <c r="V32" s="2" t="inlineStr">
+        <is>
+          <t>50,73%</t>
+        </is>
+      </c>
+      <c r="W32" s="2" t="inlineStr">
+        <is>
+          <t>78,98%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>368165</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>368165</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>368165</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>826</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>607826</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>607826</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>607826</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q33" s="2" t="inlineStr">
+        <is>
+          <t>1396</t>
+        </is>
+      </c>
+      <c r="R33" s="2" t="inlineStr">
+        <is>
+          <t>975991</t>
+        </is>
+      </c>
+      <c r="S33" s="2" t="inlineStr">
+        <is>
+          <t>975991</t>
+        </is>
+      </c>
+      <c r="T33" s="2" t="inlineStr">
+        <is>
+          <t>975991</t>
+        </is>
+      </c>
+      <c r="U33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Sí, otra persona</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>24709</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>17961</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>33302</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>8,74%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>6,35%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>11,78%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>30866</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>24453</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>39148</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>7,26%</t>
+        </is>
+      </c>
+      <c r="O34" s="2" t="inlineStr">
+        <is>
+          <t>5,75%</t>
+        </is>
+      </c>
+      <c r="P34" s="2" t="inlineStr">
+        <is>
+          <t>9,2%</t>
+        </is>
+      </c>
+      <c r="Q34" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="R34" s="2" t="inlineStr">
+        <is>
+          <t>55575</t>
+        </is>
+      </c>
+      <c r="S34" s="2" t="inlineStr">
+        <is>
+          <t>45827</t>
+        </is>
+      </c>
+      <c r="T34" s="2" t="inlineStr">
+        <is>
+          <t>66844</t>
+        </is>
+      </c>
+      <c r="U34" s="2" t="inlineStr">
+        <is>
+          <t>7,85%</t>
+        </is>
+      </c>
+      <c r="V34" s="2" t="inlineStr">
+        <is>
+          <t>6,47%</t>
+        </is>
+      </c>
+      <c r="W34" s="2" t="inlineStr">
+        <is>
+          <t>9,44%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>Sí, otro/a profesional sanitario/a (p.ej. fisioterapeuta, psicólogo/a, farmacéutico/a, enfermero/a…)</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>4792</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>1953</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>8837</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>1,69%</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>0,69%</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>3,13%</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>13049</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>8845</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>18578</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>3,07%</t>
+        </is>
+      </c>
+      <c r="O35" s="2" t="inlineStr">
+        <is>
+          <t>2,08%</t>
+        </is>
+      </c>
+      <c r="P35" s="2" t="inlineStr">
+        <is>
+          <t>4,37%</t>
+        </is>
+      </c>
+      <c r="Q35" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="R35" s="2" t="inlineStr">
+        <is>
+          <t>17841</t>
+        </is>
+      </c>
+      <c r="S35" s="2" t="inlineStr">
+        <is>
+          <t>12536</t>
+        </is>
+      </c>
+      <c r="T35" s="2" t="inlineStr">
+        <is>
+          <t>24653</t>
+        </is>
+      </c>
+      <c r="U35" s="2" t="inlineStr">
+        <is>
+          <t>2,52%</t>
+        </is>
+      </c>
+      <c r="V35" s="2" t="inlineStr">
+        <is>
+          <t>1,77%</t>
+        </is>
+      </c>
+      <c r="W35" s="2" t="inlineStr">
+        <is>
+          <t>3,48%</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Sí, mi médico/a</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>116167</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>104575</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>129623</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>41,08%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>36,98%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>45,84%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>164661</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>151186</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>178745</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>38,7%</t>
+        </is>
+      </c>
+      <c r="O36" s="2" t="inlineStr">
+        <is>
+          <t>35,54%</t>
+        </is>
+      </c>
+      <c r="P36" s="2" t="inlineStr">
+        <is>
+          <t>42,02%</t>
+        </is>
+      </c>
+      <c r="Q36" s="2" t="inlineStr">
+        <is>
+          <t>543</t>
+        </is>
+      </c>
+      <c r="R36" s="2" t="inlineStr">
+        <is>
+          <t>280828</t>
+        </is>
+      </c>
+      <c r="S36" s="2" t="inlineStr">
+        <is>
+          <t>262051</t>
+        </is>
+      </c>
+      <c r="T36" s="2" t="inlineStr">
+        <is>
+          <t>300516</t>
+        </is>
+      </c>
+      <c r="U36" s="2" t="inlineStr">
+        <is>
+          <t>39,65%</t>
+        </is>
+      </c>
+      <c r="V36" s="2" t="inlineStr">
+        <is>
+          <t>37,0%</t>
+        </is>
+      </c>
+      <c r="W36" s="2" t="inlineStr">
+        <is>
+          <t>42,43%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>137091</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>123643</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>150403</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>48,48%</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>43,73%</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>53,19%</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>449</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>216851</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>202271</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>230374</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>50,97%</t>
+        </is>
+      </c>
+      <c r="O37" s="2" t="inlineStr">
+        <is>
+          <t>47,55%</t>
+        </is>
+      </c>
+      <c r="P37" s="2" t="inlineStr">
+        <is>
+          <t>54,15%</t>
+        </is>
+      </c>
+      <c r="Q37" s="2" t="inlineStr">
+        <is>
+          <t>664</t>
+        </is>
+      </c>
+      <c r="R37" s="2" t="inlineStr">
+        <is>
+          <t>353942</t>
+        </is>
+      </c>
+      <c r="S37" s="2" t="inlineStr">
+        <is>
+          <t>335098</t>
+        </is>
+      </c>
+      <c r="T37" s="2" t="inlineStr">
+        <is>
+          <t>374456</t>
+        </is>
+      </c>
+      <c r="U37" s="2" t="inlineStr">
+        <is>
+          <t>49,98%</t>
+        </is>
+      </c>
+      <c r="V37" s="2" t="inlineStr">
+        <is>
+          <t>47,32%</t>
+        </is>
+      </c>
+      <c r="W37" s="2" t="inlineStr">
+        <is>
+          <t>52,88%</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>458</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>282759</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>282759</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>282759</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>880</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>425427</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>425427</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>425427</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O38" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P38" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q38" s="2" t="inlineStr">
+        <is>
+          <t>1338</t>
+        </is>
+      </c>
+      <c r="R38" s="2" t="inlineStr">
+        <is>
+          <t>708186</t>
+        </is>
+      </c>
+      <c r="S38" s="2" t="inlineStr">
+        <is>
+          <t>708186</t>
+        </is>
+      </c>
+      <c r="T38" s="2" t="inlineStr">
+        <is>
+          <t>708186</t>
+        </is>
+      </c>
+      <c r="U38" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V38" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W38" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>Sí, otra persona</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>250784</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>197361</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>291370</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>7,25%</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>5,7%</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>8,42%</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>252802</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>204602</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>286856</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>6,91%</t>
+        </is>
+      </c>
+      <c r="O39" s="2" t="inlineStr">
+        <is>
+          <t>5,6%</t>
+        </is>
+      </c>
+      <c r="P39" s="2" t="inlineStr">
+        <is>
+          <t>7,85%</t>
+        </is>
+      </c>
+      <c r="Q39" s="2" t="inlineStr">
+        <is>
+          <t>631</t>
+        </is>
+      </c>
+      <c r="R39" s="2" t="inlineStr">
+        <is>
+          <t>503586</t>
+        </is>
+      </c>
+      <c r="S39" s="2" t="inlineStr">
+        <is>
+          <t>431360</t>
+        </is>
+      </c>
+      <c r="T39" s="2" t="inlineStr">
+        <is>
+          <t>558136</t>
+        </is>
+      </c>
+      <c r="U39" s="2" t="inlineStr">
+        <is>
+          <t>7,08%</t>
+        </is>
+      </c>
+      <c r="V39" s="2" t="inlineStr">
+        <is>
+          <t>6,06%</t>
+        </is>
+      </c>
+      <c r="W39" s="2" t="inlineStr">
+        <is>
+          <t>7,84%</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Sí, otro/a profesional sanitario/a (p.ej. fisioterapeuta, psicólogo/a, farmacéutico/a, enfermero/a…)</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>82969</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>62702</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>103078</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>2,4%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>1,81%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>2,98%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>105312</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>84247</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>125935</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>2,88%</t>
+        </is>
+      </c>
+      <c r="O40" s="2" t="inlineStr">
+        <is>
+          <t>2,3%</t>
+        </is>
+      </c>
+      <c r="P40" s="2" t="inlineStr">
+        <is>
+          <t>3,44%</t>
+        </is>
+      </c>
+      <c r="Q40" s="2" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="R40" s="2" t="inlineStr">
+        <is>
+          <t>188281</t>
+        </is>
+      </c>
+      <c r="S40" s="2" t="inlineStr">
+        <is>
+          <t>155565</t>
+        </is>
+      </c>
+      <c r="T40" s="2" t="inlineStr">
+        <is>
+          <t>218111</t>
+        </is>
+      </c>
+      <c r="U40" s="2" t="inlineStr">
+        <is>
+          <t>2,65%</t>
+        </is>
+      </c>
+      <c r="V40" s="2" t="inlineStr">
+        <is>
+          <t>2,19%</t>
+        </is>
+      </c>
+      <c r="W40" s="2" t="inlineStr">
+        <is>
+          <t>3,07%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>Sí, mi médico/a</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>927</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>757910</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>596184</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>838612</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>21,91%</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>17,23%</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>24,24%</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>1537</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>905520</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>748005</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>980549</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>24,77%</t>
+        </is>
+      </c>
+      <c r="O41" s="2" t="inlineStr">
+        <is>
+          <t>20,46%</t>
+        </is>
+      </c>
+      <c r="P41" s="2" t="inlineStr">
+        <is>
+          <t>26,82%</t>
+        </is>
+      </c>
+      <c r="Q41" s="2" t="inlineStr">
+        <is>
+          <t>2464</t>
+        </is>
+      </c>
+      <c r="R41" s="2" t="inlineStr">
+        <is>
+          <t>1663430</t>
+        </is>
+      </c>
+      <c r="S41" s="2" t="inlineStr">
+        <is>
+          <t>1442636</t>
+        </is>
+      </c>
+      <c r="T41" s="2" t="inlineStr">
+        <is>
+          <t>1778575</t>
+        </is>
+      </c>
+      <c r="U41" s="2" t="inlineStr">
+        <is>
+          <t>23,38%</t>
+        </is>
+      </c>
+      <c r="V41" s="2" t="inlineStr">
+        <is>
+          <t>20,27%</t>
+        </is>
+      </c>
+      <c r="W41" s="2" t="inlineStr">
+        <is>
+          <t>24,99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>2090</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>2368154</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>2254994</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>2597568</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>68,45%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>65,18%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>75,08%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>3282</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>2392485</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>2294154</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>2612763</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>65,44%</t>
+        </is>
+      </c>
+      <c r="O42" s="2" t="inlineStr">
+        <is>
+          <t>62,75%</t>
+        </is>
+      </c>
+      <c r="P42" s="2" t="inlineStr">
+        <is>
+          <t>71,46%</t>
+        </is>
+      </c>
+      <c r="Q42" s="2" t="inlineStr">
+        <is>
+          <t>5372</t>
+        </is>
+      </c>
+      <c r="R42" s="2" t="inlineStr">
+        <is>
+          <t>4760640</t>
+        </is>
+      </c>
+      <c r="S42" s="2" t="inlineStr">
+        <is>
+          <t>4606494</t>
+        </is>
+      </c>
+      <c r="T42" s="2" t="inlineStr">
+        <is>
+          <t>5082941</t>
+        </is>
+      </c>
+      <c r="U42" s="2" t="inlineStr">
+        <is>
+          <t>66,9%</t>
+        </is>
+      </c>
+      <c r="V42" s="2" t="inlineStr">
+        <is>
+          <t>64,73%</t>
+        </is>
+      </c>
+      <c r="W42" s="2" t="inlineStr">
+        <is>
+          <t>71,43%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>3376</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>3459817</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>3459817</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>3459817</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>5356</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>3656119</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>3656119</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>3656119</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O43" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P43" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q43" s="2" t="inlineStr">
+        <is>
+          <t>8732</t>
+        </is>
+      </c>
+      <c r="R43" s="2" t="inlineStr">
+        <is>
+          <t>7115936</t>
+        </is>
+      </c>
+      <c r="S43" s="2" t="inlineStr">
+        <is>
+          <t>7115936</t>
+        </is>
+      </c>
+      <c r="T43" s="2" t="inlineStr">
+        <is>
+          <t>7115936</t>
+        </is>
+      </c>
+      <c r="U43" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V43" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W43" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
@@ -2412,18 +5276,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A4:A8"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
